--- a/biology/Botanique/Scleroderma_geaster/Scleroderma_geaster.xlsx
+++ b/biology/Botanique/Scleroderma_geaster/Scleroderma_geaster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scleroderma polyrhizum est une espèce de champignons basidiomycètes de la famille des Sclerodermataceae.
 </t>
@@ -511,11 +523,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Scleroderma polyrhizum (J.F.Gmel.) Pers., 1801[1].
-L'espèce a été initialement classée dans le genre Lycoperdon sous le basionyme Lycoperdon polyrhizum J.F.Gmel., 1792[1].
-Scleroderma polyrhizum a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Scleroderma polyrhizum (J.F.Gmel.) Pers., 1801.
+L'espèce a été initialement classée dans le genre Lycoperdon sous le basionyme Lycoperdon polyrhizum J.F.Gmel., 1792.
+Scleroderma polyrhizum a pour synonymes :
 Lycoperdon polyrhizon Batsch, 1783
 Lycoperdon polyrhizon J.F.Gmel., 1792
 Lycoperdon polyrhizum Batsch, 1783
@@ -553,7 +567,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(la) C. H. Persoon, Synopsis methodica fungorum, Göttingen, 1801, 706 p. (DOI 10.5962/BHL.TITLE.166151, lire en ligne)</t>
         </is>
